--- a/globe/numbeoCoLData/2015CoL.xlsx
+++ b/globe/numbeoCoLData/2015CoL.xlsx
@@ -1993,7 +1993,7 @@
     <t xml:space="preserve">Jeddah (Jiddah), Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Jeddah (Jiddah)</t>
+    <t xml:space="preserve">Jeddah</t>
   </si>
   <si>
     <t xml:space="preserve">Petaling Jaya, Malaysia</t>
@@ -2191,7 +2191,7 @@
     <t xml:space="preserve">Krakow (Cracow), Poland</t>
   </si>
   <si>
-    <t xml:space="preserve">Krakow (Cracow)</t>
+    <t xml:space="preserve">Krakow</t>
   </si>
   <si>
     <t xml:space="preserve">Gdansk, Poland</t>
@@ -2707,7 +2707,7 @@
     <t xml:space="preserve">Lucknow (Lakhnau), India</t>
   </si>
   <si>
-    <t xml:space="preserve">Lucknow (Lakhnau)</t>
+    <t xml:space="preserve">Lucknow</t>
   </si>
   <si>
     <t xml:space="preserve">Surat, India</t>
@@ -2865,13 +2865,13 @@
   </sheetPr>
   <dimension ref="A1:F457"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A426" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I451" activeCellId="0" sqref="I451"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A340" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A363" activeCellId="0" sqref="A363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.1734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
